--- a/init-data/hzero-platform/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/init-data/hzero-platform/hzero_platform/hzero-platform-code-rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2013,13 +2013,19 @@
     <t>#rule_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>rule_level</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2110,6 +2116,9 @@
   </si>
   <si>
     <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
   </si>
   <si>
     <t>hpfm_code_rule_dist-16</t>
@@ -2282,7 +2291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2444,6 +2453,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2639,7 +2653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2726,6 +2740,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3311,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3367,116 +3382,158 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="42">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="42">
         <v>59</v>
+      </c>
+      <c r="K7" t="s" s="43">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -3487,186 +3544,210 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s" s="43">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s" s="44">
         <v>83</v>
       </c>
-      <c r="F15" t="s" s="45">
+      <c r="D15" t="s" s="44">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="46">
+      <c r="E15" t="s" s="45">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="47">
+      <c r="F15" t="s" s="46">
         <v>86</v>
       </c>
+      <c r="G15" t="s" s="47">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s" s="48">
+        <v>88</v>
+      </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <f>编码规则数据!$E$8</f>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <f>编码规则数据!$E$9</f>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20">
         <f>编码规则数据!$E$13</f>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F21">
         <f>编码规则数据!$E$10</f>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <f>编码规则数据!$E$12</f>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -3677,390 +3758,432 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s" s="48">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s" s="49">
-        <v>107</v>
-      </c>
-      <c r="F24" t="s" s="50">
         <v>108</v>
       </c>
-      <c r="G24" t="s" s="51">
+      <c r="D24" t="s" s="49">
         <v>109</v>
       </c>
+      <c r="E24" t="s" s="50">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s" s="51">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s" s="52">
+        <v>112</v>
+      </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P25" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <f>编码规则数据!$E$18</f>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F27">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <f>编码规则数据!$E$19</f>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M28" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="N28" t="s">
-        <v>126</v>
-      </c>
       <c r="O28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <f>编码规则数据!$E$21</f>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F32">
         <f>编码规则数据!$E$22</f>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F33">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <f>编码规则数据!$E$20</f>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F35">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P35" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <f>编码规则数据!$E$16</f>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F37">
         <f>编码规则数据!$E$17</f>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
